--- a/biology/Histoire de la zoologie et de la botanique/Anders_Herman_Warén/Anders_Herman_Warén.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Anders_Herman_Warén/Anders_Herman_Warén.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anders_Herman_War%C3%A9n</t>
+          <t>Anders_Herman_Warén</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anders Herman Warén (né en 1945) est un zoologiste suédois spécialisé dans les invertébrés, en particulier les mollusques (famille des Eulimidae).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anders_Herman_War%C3%A9n</t>
+          <t>Anders_Herman_Warén</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est titulaire d'un doctorat en biologie de l'Université de Göteborg. Il y est assistant de recherche au Département de zoologie de 1979 à 1984 et devient ensuite le premier conservateur du Département des invertébrés au Muséum suédois d'histoire naturelle de Stockholm. Il est spécialisé dans la faune de mollusques d'eau profonde, les mollusques à coquille de l'Atlantique Nord et des milieux chimioautotrophe.
-Il participe à de nombreuses expéditions en mer dans le monde entier, notamment dans les mers tropicales du Pacifique[1] qu'il a commentées dans son ouvrage : Warén, A. (1992) : "Comments on and descriptions of eulimid gastropods from tropical west America". The Veliger 35 : 177-194.
-Il décrit et nomme plusieurs centaines d'espèces de mollusques nouvelles pour la science. Il est également le descripteur de la famille des Ebalidae[2], aujourd'hui considérée comme la sous-famille des Ebalidae[3].
+Il participe à de nombreuses expéditions en mer dans le monde entier, notamment dans les mers tropicales du Pacifique qu'il a commentées dans son ouvrage : Warén, A. (1992) : "Comments on and descriptions of eulimid gastropods from tropical west America". The Veliger 35 : 177-194.
+Il décrit et nomme plusieurs centaines d'espèces de mollusques nouvelles pour la science. Il est également le descripteur de la famille des Ebalidae, aujourd'hui considérée comme la sous-famille des Ebalidae.
 L'abréviation Warén est utilisée pour reconnaître Anders Herman Warén en taxonomie en zoologie.
 </t>
         </is>
